--- a/pred_ohlcv/54_21/2020-01-21 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 REP ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2191.5613</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2152.4151</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2152.463</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2152.6404</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2035.481914294912</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2109.446714294912</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2145.001414294912</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2381.894214294912</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2427.428914294912</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2314.051814294912</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2317.067314294912</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2350.567314294912</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2323.827114294912</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2393.243814294912</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2390.788814294912</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1762.038750513881</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1774.400650513881</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1776.400650513881</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1837.221650513881</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1836.40405032231</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1986.80805032231</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2850.261050322312</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1247.482350322312</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1153.067150322312</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2831.909250322312</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2831.743950322312</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2844.366850322312</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3086.787750322312</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3180.545950322312</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3220.269150322312</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3646.321550322312</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3646.374050322312</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4085.004750322312</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-6403.52485032231</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8719.503229556356</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-8699.380029556356</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-8750.976729556356</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-8196.934838786145</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-7613.959383986399</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-7656.9541839864</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7628.5541839864</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7658.0429839864</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7635.7417839864</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-8071.9489839864</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-8029.4136839864</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-8027.583683986401</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 REP ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2191.5613</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2152.4151</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2152.463</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2152.6404</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2035.481914294912</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2109.446714294912</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2145.001414294912</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2381.894214294912</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2314.051814294912</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2317.067314294912</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2350.567314294912</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2323.827114294912</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2393.243814294912</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2390.788814294912</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1762.038750513881</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1774.400650513881</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1776.400650513881</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1837.221650513881</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1836.40405032231</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1986.80805032231</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2850.261050322312</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2451.258150322312</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2491.537550322312</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2356.466150322312</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1857.157850322312</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1717.487550322312</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1824.527350322312</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1869.598950322312</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1922.296650322312</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1246.777350322312</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1247.482350322312</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1153.067150322312</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1154.362150322312</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1154.827950322312</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2831.909250322312</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2831.743950322312</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2844.366850322312</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3086.787750322312</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3180.545950322312</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3220.269150322312</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3646.321550322312</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3646.374050322312</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4085.004750322312</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-6403.52485032231</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8719.503229556356</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-8764.630529556356</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-8871.868229556356</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-8959.043129556356</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-8196.934838786145</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-7613.959383986399</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-7656.9541839864</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7628.5541839864</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7658.0429839864</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7635.7417839864</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-8071.9489839864</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-8029.4136839864</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-8027.583683986401</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
